--- a/biology/Zoologie/Cordonbleu_d'Angola/Cordonbleu_d'Angola.xlsx
+++ b/biology/Zoologie/Cordonbleu_d'Angola/Cordonbleu_d'Angola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cordonbleu_d%27Angola</t>
+          <t>Cordonbleu_d'Angola</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uraeginthus angolensis
 Le Cordonbleu d'Angola (Uraeginthus angolensis) est une espèce de passereau appartenant à la famille des Estrildidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cordonbleu_d%27Angola</t>
+          <t>Cordonbleu_d'Angola</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 11,5 cm de longueur. Il ressemble beaucoup au Cordonbleu à joues rouges mais sans la coloration rouge caractéristique de cette espèce et d'un bleu beaucoup plus vif. La femelle avec les parties inférieures beiges ressemble beaucoup aux autres femelles de ce genre mais présente un bec rose plus vif. Celui du mâle est rouge avec l'extrémité noire. Les yeux sont marron et les pattes brun clair.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cordonbleu_d%27Angola</t>
+          <t>Cordonbleu_d'Angola</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se trouve en Afrique du Sud, Angola, Botswana, Burundi, République du Congo, République démocratique du Congo, Kenya, Malawi, Mozambique, Namibie, Sao Tomé-et-Principe, Swaziland, Tanzanie, Zambie et Zimbabwe. Elle a été
 introduite à Zanzibar et à Sao Tomé.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cordonbleu_d%27Angola</t>
+          <t>Cordonbleu_d'Angola</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple les milieux arbustifs et les zones cultivées.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cordonbleu_d%27Angola</t>
+          <t>Cordonbleu_d'Angola</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, il en existe 4 sous-espèces :
 Uraeginthus angolensis angolensis (Linnaeus) 1758 ;
